--- a/6/kasa=1/6_kasa=1_SS.xlsx
+++ b/6/kasa=1/6_kasa=1_SS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/6/kasa=1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB24F1AD-CC52-F547-BFE1-AB617C07F6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3CD788-C21D-B944-9904-59A67E7B92E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +155,22 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -194,12 +210,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -12236,16 +12256,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16179,184 +16199,185 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>21.61</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>1942.221238095238</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>15</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>22.667285714285711</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>1882.695047619048</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>30</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>21.785142857142858</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>1848.9224588744589</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1.41</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>22.871857142857142</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>2506.870476190476</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1.41</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>15</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>22.028857142857142</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>2449.924121212121</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1.41</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>30</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>21.263571428571431</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>2416.8485714285721</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>1.58</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>10</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>22.64385714285714</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>2741.266874458875</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1.58</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>15</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>22.095571428571429</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>2686.0907012987009</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>1.58</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>30</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>21.540857142857138</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>2653.9149783549792</v>
       </c>
     </row>
